--- a/write-ups/thesis/excel/clustering_recovered-expanded_really.xlsx
+++ b/write-ups/thesis/excel/clustering_recovered-expanded_really.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="25360" windowHeight="15960" tabRatio="500" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="25360" windowHeight="15960" tabRatio="500" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="jaccard+May5th (2)" sheetId="19" r:id="rId1"/>
@@ -1244,8 +1244,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1496,7 +1498,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1616,6 +1618,7 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1735,6 +1738,7 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1833,11 +1837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111678696"/>
-        <c:axId val="2111719912"/>
+        <c:axId val="2113147816"/>
+        <c:axId val="2111715592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111678696"/>
+        <c:axId val="2113147816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111719912"/>
+        <c:crossAx val="2111715592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1854,7 +1858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111719912"/>
+        <c:axId val="2111715592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111678696"/>
+        <c:crossAx val="2113147816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2020,11 +2024,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114081160"/>
-        <c:axId val="2114075992"/>
+        <c:axId val="2111180296"/>
+        <c:axId val="2111175128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114081160"/>
+        <c:axId val="2111180296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2041,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114075992"/>
+        <c:crossAx val="2111175128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2045,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114075992"/>
+        <c:axId val="2111175128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114081160"/>
+        <c:crossAx val="2111180296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,11 +2175,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2114058632"/>
-        <c:axId val="2114047528"/>
+        <c:axId val="2111157640"/>
+        <c:axId val="2111146664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114058632"/>
+        <c:axId val="2111157640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,7 +2188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114047528"/>
+        <c:crossAx val="2111146664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2192,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114047528"/>
+        <c:axId val="2111146664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114058632"/>
+        <c:crossAx val="2111157640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2466,11 +2470,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2114008456"/>
-        <c:axId val="2114005320"/>
+        <c:axId val="2111107592"/>
+        <c:axId val="2111104456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114008456"/>
+        <c:axId val="2111107592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2484,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114005320"/>
+        <c:crossAx val="2111104456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2488,7 +2492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114005320"/>
+        <c:axId val="2111104456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114008456"/>
+        <c:crossAx val="2111107592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,11 +2615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113977368"/>
-        <c:axId val="2113967608"/>
+        <c:axId val="2108102072"/>
+        <c:axId val="2108092184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113977368"/>
+        <c:axId val="2108102072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113967608"/>
+        <c:crossAx val="2108092184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113967608"/>
+        <c:axId val="2108092184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113977368"/>
+        <c:crossAx val="2108102072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,11 +2881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077381944"/>
-        <c:axId val="2077378952"/>
+        <c:axId val="2112954504"/>
+        <c:axId val="2112951512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077381944"/>
+        <c:axId val="2112954504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077378952"/>
+        <c:crossAx val="2112951512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2899,7 +2903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077378952"/>
+        <c:axId val="2112951512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077381944"/>
+        <c:crossAx val="2112954504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3055,11 +3059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113935800"/>
-        <c:axId val="2113932808"/>
+        <c:axId val="2112911128"/>
+        <c:axId val="2112908136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113935800"/>
+        <c:axId val="2112911128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113932808"/>
+        <c:crossAx val="2112908136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3076,7 +3080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113932808"/>
+        <c:axId val="2112908136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +3091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113935800"/>
+        <c:crossAx val="2112911128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3182,11 +3186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115379704"/>
-        <c:axId val="2115382648"/>
+        <c:axId val="2112890408"/>
+        <c:axId val="2112880936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115379704"/>
+        <c:axId val="2112890408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +3199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115382648"/>
+        <c:crossAx val="2112880936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3203,7 +3207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115382648"/>
+        <c:axId val="2112880936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115379704"/>
+        <c:crossAx val="2112890408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3404,11 +3408,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2115422808"/>
-        <c:axId val="2115425928"/>
+        <c:axId val="2115500424"/>
+        <c:axId val="2115503544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115422808"/>
+        <c:axId val="2115500424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,7 +3421,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115425928"/>
+        <c:crossAx val="2115503544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3425,7 +3429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115425928"/>
+        <c:axId val="2115503544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +3439,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115422808"/>
+        <c:crossAx val="2115500424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3518,11 +3522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077356392"/>
-        <c:axId val="2077347080"/>
+        <c:axId val="2115535896"/>
+        <c:axId val="2115538920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077356392"/>
+        <c:axId val="2115535896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077347080"/>
+        <c:crossAx val="2115538920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3539,7 +3543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077347080"/>
+        <c:axId val="2115538920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +3554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077356392"/>
+        <c:crossAx val="2115535896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3695,11 +3699,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2077314088"/>
-        <c:axId val="2077310952"/>
+        <c:axId val="2115572376"/>
+        <c:axId val="2115575496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2077314088"/>
+        <c:axId val="2115572376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,7 +3712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077310952"/>
+        <c:crossAx val="2115575496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3716,7 +3720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077310952"/>
+        <c:axId val="2115575496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +3730,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077314088"/>
+        <c:crossAx val="2115572376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3932,11 +3936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111751560"/>
-        <c:axId val="2111754536"/>
+        <c:axId val="2113113080"/>
+        <c:axId val="2113110088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111751560"/>
+        <c:axId val="2113113080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,7 +3950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111754536"/>
+        <c:crossAx val="2113110088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3954,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111754536"/>
+        <c:axId val="2113110088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +3968,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111751560"/>
+        <c:crossAx val="2113113080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4157,11 +4161,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2115466872"/>
-        <c:axId val="2115469992"/>
+        <c:axId val="2115622520"/>
+        <c:axId val="2115625640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115466872"/>
+        <c:axId val="2115622520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4174,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115469992"/>
+        <c:crossAx val="2115625640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4178,7 +4182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115469992"/>
+        <c:axId val="2115625640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115466872"/>
+        <c:crossAx val="2115622520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4304,11 +4308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115496792"/>
-        <c:axId val="2115499736"/>
+        <c:axId val="2115652456"/>
+        <c:axId val="2115655416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115496792"/>
+        <c:axId val="2115652456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115499736"/>
+        <c:crossAx val="2115655416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4325,7 +4329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115499736"/>
+        <c:axId val="2115655416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,7 +4340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115496792"/>
+        <c:crossAx val="2115652456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4431,11 +4435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115542632"/>
-        <c:axId val="2115545576"/>
+        <c:axId val="2115701416"/>
+        <c:axId val="2115704376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115542632"/>
+        <c:axId val="2115701416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115545576"/>
+        <c:crossAx val="2115704376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4452,7 +4456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115545576"/>
+        <c:axId val="2115704376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115542632"/>
+        <c:crossAx val="2115701416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4558,11 +4562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115569208"/>
-        <c:axId val="2115572152"/>
+        <c:axId val="2115728408"/>
+        <c:axId val="2115731368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115569208"/>
+        <c:axId val="2115728408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,7 +4575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115572152"/>
+        <c:crossAx val="2115731368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4579,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115572152"/>
+        <c:axId val="2115731368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115569208"/>
+        <c:crossAx val="2115728408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4682,11 +4686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115604760"/>
-        <c:axId val="2115607704"/>
+        <c:axId val="2115765976"/>
+        <c:axId val="2115768936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115604760"/>
+        <c:axId val="2115765976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,7 +4699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115607704"/>
+        <c:crossAx val="2115768936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4703,7 +4707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115607704"/>
+        <c:axId val="2115768936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4714,7 +4718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115604760"/>
+        <c:crossAx val="2115765976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4806,11 +4810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115630296"/>
-        <c:axId val="2115633240"/>
+        <c:axId val="2115791512"/>
+        <c:axId val="2115794472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115630296"/>
+        <c:axId val="2115791512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,7 +4823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115633240"/>
+        <c:crossAx val="2115794472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4827,7 +4831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115633240"/>
+        <c:axId val="2115794472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115630296"/>
+        <c:crossAx val="2115791512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4977,11 +4981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115670792"/>
-        <c:axId val="2115673768"/>
+        <c:axId val="2111059896"/>
+        <c:axId val="2111056904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115670792"/>
+        <c:axId val="2111059896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,7 +4994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115673768"/>
+        <c:crossAx val="2111056904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4998,7 +5002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115673768"/>
+        <c:axId val="2111056904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5009,7 +5013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115670792"/>
+        <c:crossAx val="2111059896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5098,8 +5102,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2109939352"/>
-        <c:axId val="2109936360"/>
+        <c:axId val="2111062328"/>
+        <c:axId val="2111078312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5264,11 +5268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109939352"/>
-        <c:axId val="2109936360"/>
+        <c:axId val="2111062328"/>
+        <c:axId val="2111078312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109939352"/>
+        <c:axId val="2111062328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +5282,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109936360"/>
+        <c:crossAx val="2111078312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5286,7 +5290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109936360"/>
+        <c:axId val="2111078312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5297,14 +5301,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109939352"/>
+        <c:crossAx val="2111062328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5510,8 +5513,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109886312"/>
-        <c:axId val="2109883096"/>
+        <c:axId val="2110991528"/>
+        <c:axId val="2115822968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5683,11 +5686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109886312"/>
-        <c:axId val="2109883096"/>
+        <c:axId val="2110991528"/>
+        <c:axId val="2115822968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109886312"/>
+        <c:axId val="2110991528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5705,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2109883096"/>
+        <c:crossAx val="2115822968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5710,7 +5713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109883096"/>
+        <c:axId val="2115822968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,7 +5723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109886312"/>
+        <c:crossAx val="2110991528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5735,7 +5738,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5870,8 +5872,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109848328"/>
-        <c:axId val="2109845192"/>
+        <c:axId val="2115882024"/>
+        <c:axId val="2115885144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6036,11 +6038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109848328"/>
-        <c:axId val="2109845192"/>
+        <c:axId val="2115882024"/>
+        <c:axId val="2115885144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109848328"/>
+        <c:axId val="2115882024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6050,7 +6052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109845192"/>
+        <c:crossAx val="2115885144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6058,7 +6060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109845192"/>
+        <c:axId val="2115885144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,14 +6071,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109848328"/>
+        <c:crossAx val="2115882024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6228,11 +6229,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077505704"/>
-        <c:axId val="2077501736"/>
+        <c:axId val="2113084600"/>
+        <c:axId val="2113081608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077505704"/>
+        <c:axId val="2113084600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6241,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077501736"/>
+        <c:crossAx val="2113081608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6249,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077501736"/>
+        <c:axId val="2113081608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6260,7 +6261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077505704"/>
+        <c:crossAx val="2113084600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6388,8 +6389,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2109816872"/>
-        <c:axId val="2109813880"/>
+        <c:axId val="2115913576"/>
+        <c:axId val="2115916552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6475,11 +6476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109816872"/>
-        <c:axId val="2109813880"/>
+        <c:axId val="2115913576"/>
+        <c:axId val="2115916552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109816872"/>
+        <c:axId val="2115913576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +6489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109813880"/>
+        <c:crossAx val="2115916552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6496,7 +6497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109813880"/>
+        <c:axId val="2115916552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,14 +6513,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2109816872"/>
+        <c:crossAx val="2115913576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6720,11 +6720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077266840"/>
-        <c:axId val="2077263848"/>
+        <c:axId val="2115958232"/>
+        <c:axId val="2115961208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077266840"/>
+        <c:axId val="2115958232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6733,7 +6733,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077263848"/>
+        <c:crossAx val="2115961208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6741,7 +6741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077263848"/>
+        <c:axId val="2115961208"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6775,7 +6775,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077266840"/>
+        <c:crossAx val="2115958232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6991,11 +6991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115723688"/>
-        <c:axId val="2115726664"/>
+        <c:axId val="2108057784"/>
+        <c:axId val="2108054792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115723688"/>
+        <c:axId val="2108057784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7004,7 +7004,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115726664"/>
+        <c:crossAx val="2108054792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7012,7 +7012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115726664"/>
+        <c:axId val="2108054792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7042,7 +7042,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115723688"/>
+        <c:crossAx val="2108057784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7162,11 +7162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115762872"/>
-        <c:axId val="2115765880"/>
+        <c:axId val="2115932136"/>
+        <c:axId val="2115945704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115762872"/>
+        <c:axId val="2115932136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7175,7 +7175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115765880"/>
+        <c:crossAx val="2115945704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7183,7 +7183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115765880"/>
+        <c:axId val="2115945704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,7 +7194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115762872"/>
+        <c:crossAx val="2115932136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7487,8 +7487,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2131222184"/>
-        <c:axId val="2128585832"/>
+        <c:axId val="2115428888"/>
+        <c:axId val="2115425896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7653,11 +7653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131222184"/>
-        <c:axId val="2128585832"/>
+        <c:axId val="2115428888"/>
+        <c:axId val="2115425896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131222184"/>
+        <c:axId val="2115428888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,7 +7667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128585832"/>
+        <c:crossAx val="2115425896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7675,7 +7675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128585832"/>
+        <c:axId val="2115425896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7686,7 +7686,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131222184"/>
+        <c:crossAx val="2115428888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7789,8 +7789,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2129941592"/>
-        <c:axId val="2129944568"/>
+        <c:axId val="2110975656"/>
+        <c:axId val="2110972664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7955,11 +7955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129941592"/>
-        <c:axId val="2129944568"/>
+        <c:axId val="2110975656"/>
+        <c:axId val="2110972664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129941592"/>
+        <c:axId val="2110975656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7969,7 +7969,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129944568"/>
+        <c:crossAx val="2110972664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7977,7 +7977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129944568"/>
+        <c:axId val="2110972664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7988,7 +7988,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129941592"/>
+        <c:crossAx val="2110975656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8151,11 +8151,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077468632"/>
-        <c:axId val="2077463464"/>
+        <c:axId val="2113056520"/>
+        <c:axId val="2113051352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077468632"/>
+        <c:axId val="2113056520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8168,7 +8168,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077463464"/>
+        <c:crossAx val="2113051352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8176,7 +8176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077463464"/>
+        <c:axId val="2113051352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8190,7 +8190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077468632"/>
+        <c:crossAx val="2113056520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8299,11 +8299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2077438440"/>
-        <c:axId val="2077435480"/>
+        <c:axId val="2113026584"/>
+        <c:axId val="2113023624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2077438440"/>
+        <c:axId val="2113026584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8312,7 +8312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077435480"/>
+        <c:crossAx val="2113023624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8320,7 +8320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077435480"/>
+        <c:axId val="2113023624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8331,7 +8331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077438440"/>
+        <c:crossAx val="2113026584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8585,11 +8585,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2109993256"/>
-        <c:axId val="2109990072"/>
+        <c:axId val="2108575064"/>
+        <c:axId val="2108570488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109993256"/>
+        <c:axId val="2108575064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8599,7 +8599,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109990072"/>
+        <c:crossAx val="2108570488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8607,7 +8607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109990072"/>
+        <c:axId val="2108570488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109993256"/>
+        <c:crossAx val="2108575064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8750,11 +8750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114172552"/>
-        <c:axId val="2114169560"/>
+        <c:axId val="2111807640"/>
+        <c:axId val="2111810616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114172552"/>
+        <c:axId val="2111807640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8763,7 +8763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114169560"/>
+        <c:crossAx val="2111810616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8771,7 +8771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114169560"/>
+        <c:axId val="2111810616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8782,7 +8782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114172552"/>
+        <c:crossAx val="2111807640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8997,11 +8997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114138392"/>
-        <c:axId val="2114135400"/>
+        <c:axId val="2111237544"/>
+        <c:axId val="2111234552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114138392"/>
+        <c:axId val="2111237544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9011,7 +9011,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114135400"/>
+        <c:crossAx val="2111234552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9019,7 +9019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114135400"/>
+        <c:axId val="2111234552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9029,7 +9029,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114138392"/>
+        <c:crossAx val="2111237544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9180,11 +9180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114109960"/>
-        <c:axId val="2114106968"/>
+        <c:axId val="2111209080"/>
+        <c:axId val="2111206088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114109960"/>
+        <c:axId val="2111209080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9193,7 +9193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114106968"/>
+        <c:crossAx val="2111206088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9201,7 +9201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114106968"/>
+        <c:axId val="2111206088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,7 +9212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114109960"/>
+        <c:crossAx val="2111209080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19254,8 +19254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
